--- a/tut05/output/0401ME20.xlsx
+++ b/tut05/output/0401ME20.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.857142857142857</v>
+        <v>6.86</v>
       </c>
       <c r="C6" t="n">
-        <v>6.227272727272728</v>
+        <v>6.23</v>
       </c>
       <c r="D6" t="n">
-        <v>7.468085106382978</v>
+        <v>7.47</v>
       </c>
       <c r="E6" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="F6" t="n">
-        <v>7.565217391304348</v>
+        <v>7.57</v>
       </c>
       <c r="G6" t="n">
-        <v>7.782608695652174</v>
+        <v>7.78</v>
       </c>
       <c r="H6" t="n">
         <v>9.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.857142857142857</v>
+        <v>6.86</v>
       </c>
       <c r="C8" t="n">
-        <v>6.559139784946237</v>
+        <v>6.56</v>
       </c>
       <c r="D8" t="n">
-        <v>6.864285714285714</v>
+        <v>6.86</v>
       </c>
       <c r="E8" t="n">
-        <v>7.111111111111111</v>
+        <v>7.11</v>
       </c>
       <c r="F8" t="n">
         <v>7.2</v>
       </c>
       <c r="G8" t="n">
-        <v>7.295373665480427</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
-        <v>7.576323987538941</v>
+        <v>7.58</v>
       </c>
       <c r="I8" t="n">
-        <v>7.650969529085873</v>
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>
